--- a/SensitivityAnalisys/DataNodes.xlsx
+++ b/SensitivityAnalisys/DataNodes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="115_{3C012DFA-6514-47FB-A009-009EE274F181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E466B0BF-CDD1-43FA-97FB-FCAC1BEAA60B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB72159-7F00-4284-8B58-670C509F7B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7460" tabRatio="916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53505" yWindow="1770" windowWidth="21600" windowHeight="11295" tabRatio="916" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>ANN</t>
+  </si>
+  <si>
+    <t>GIC2</t>
   </si>
 </sst>
 </file>
@@ -198,8 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_GroupOfInsuranceContract" displayName="Table_GroupOfInsuranceContract" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_GroupOfInsuranceContract" displayName="Table_GroupOfInsuranceContract" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="SystemName" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DisplayName" dataDxfId="4"/>
@@ -741,17 +745,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -780,7 +784,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -790,7 +794,7 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -810,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -854,13 +858,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB316C0F-9811-4CDE-ADE7-F9837303F0D7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -870,7 +874,7 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -910,15 +914,35 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="D2" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>LiabilityType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="E2" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" sqref="E2:E3" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>InsurancePortfolio_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>Profitability_SystemName</formula1>
     </dataValidation>
   </dataValidations>
@@ -938,7 +962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -947,7 +971,7 @@
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -967,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -987,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1971</v>
       </c>
@@ -1007,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1972</v>
       </c>
@@ -1021,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1973</v>
       </c>
@@ -1035,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1974</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -1054,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1976</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1977</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -1078,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1979</v>
       </c>
@@ -1086,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1980</v>
       </c>
@@ -1094,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1981</v>
       </c>
@@ -1102,457 +1126,457 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1982</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1983</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1984</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1985</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1987</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1988</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1989</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1991</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1992</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1994</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1995</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2002</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2003</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2004</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2005</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2006</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2007</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2009</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2010</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2011</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2012</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2013</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2025</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2026</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2027</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2028</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2029</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2030</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2031</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2032</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2033</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2034</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2035</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2036</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2037</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2038</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2039</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2040</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2041</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2042</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2043</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2044</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2045</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2046</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2047</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2048</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2049</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2050</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2051</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2052</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2053</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2054</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2055</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2056</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2057</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2058</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2059</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2060</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2061</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2062</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2063</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2064</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2065</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2066</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2067</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2068</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2069</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2070</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2071</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2072</v>
       </c>
